--- a/www/IndicatorsPerCountry/Bolivia_ArmedConflictsInternational_TerritorialRef_1946_2012_CCode_68.xlsx
+++ b/www/IndicatorsPerCountry/Bolivia_ArmedConflictsInternational_TerritorialRef_1946_2012_CCode_68.xlsx
@@ -69,13 +69,13 @@
     <t>Brecke, Peter (2015). Armed Conflicts (International). http://hdl.handle.net/10622/JQJIP6, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.bib</t>
   </si>
 </sst>
 </file>
